--- a/Models/Fed Models/Four Models/Correlation Table/Four Models Correlation Table.xlsx
+++ b/Models/Fed Models/Four Models/Correlation Table/Four Models Correlation Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylenabors/Documents/GitHub/MS-Thesis/Models/Fed Models/Four Models/Correlation Table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0214A276-F339-1240-93CC-4E73E790284C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EB5C6A-0025-CE49-A31C-A5170D83ECD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" activeTab="1" xr2:uid="{8BF6D4F4-22AA-EC47-B46B-F3D2775721F4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="33340" xr2:uid="{8BF6D4F4-22AA-EC47-B46B-F3D2775721F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="29">
   <si>
     <t>Keyword</t>
   </si>
@@ -97,18 +97,6 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>2006_2007 Total</t>
-  </si>
-  <si>
-    <t>2008_2009 Total</t>
-  </si>
-  <si>
-    <t>2010_2019 Total</t>
-  </si>
-  <si>
-    <t>2020_2023 Total</t>
-  </si>
-  <si>
     <t>2006 - 2007</t>
   </si>
   <si>
@@ -122,6 +110,24 @@
   </si>
   <si>
     <t>Year_Range</t>
+  </si>
+  <si>
+    <t>trade</t>
+  </si>
+  <si>
+    <t>invest</t>
+  </si>
+  <si>
+    <t>uncertain</t>
+  </si>
+  <si>
+    <t>Federal Funds Rate Total</t>
+  </si>
+  <si>
+    <t>S&amp;P 500 Change  Total</t>
+  </si>
+  <si>
+    <t>Fed Funds Rate</t>
   </si>
 </sst>
 </file>
@@ -301,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -322,6 +328,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -331,8 +340,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -352,7 +371,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45117.601095717589" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="40" xr:uid="{959BCDC2-7E8D-984E-84A9-427C6FBC2CD7}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Microsoft Office User" refreshedDate="45123.741129050926" missingItemsLimit="0" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="40" xr:uid="{959BCDC2-7E8D-984E-84A9-427C6FBC2CD7}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:D43" sheet="Sheet1"/>
   </cacheSource>
@@ -363,7 +382,7 @@
         <s v="Federal Funds Rate"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Year Range" numFmtId="0">
+    <cacheField name="Year_Range" numFmtId="0">
       <sharedItems count="4">
         <s v="2006_2007"/>
         <s v="2008_2009"/>
@@ -373,15 +392,15 @@
     </cacheField>
     <cacheField name="Keyword" numFmtId="0">
       <sharedItems count="5">
-        <s v="market"/>
-        <s v="rate"/>
-        <s v="credit"/>
+        <s v="invest"/>
+        <s v="trade"/>
+        <s v="uncertain"/>
         <s v="interest"/>
         <s v="inflation"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Correlation" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.69750000000000001" maxValue="0.86499999999999999"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.64229999999999998" maxValue="0.89539999999999997"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -398,19 +417,19 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="-0.18579999999999999"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="-0.14599999999999999"/>
+    <n v="-0.32279999999999998"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="-0.2387"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="-0.23530000000000001"/>
+    <n v="-0.31219999999999998"/>
   </r>
   <r>
     <x v="0"/>
@@ -427,50 +446,44 @@
   <r>
     <x v="0"/>
     <x v="1"/>
-    <x v="2"/>
-    <n v="1.52E-2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="5.5100000000000003E-2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="-0.313"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
     <x v="4"/>
     <n v="-2.3599999999999999E-2"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
+    <x v="1"/>
+    <n v="0.61270000000000002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
     <x v="3"/>
     <n v="7.9699999999999993E-2"/>
   </r>
   <r>
     <x v="0"/>
+    <x v="1"/>
     <x v="2"/>
-    <x v="1"/>
-    <n v="-0.13009999999999999"/>
+    <n v="-0.41639999999999999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.43659999999999999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="-0.127"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
-    <n v="0.1263"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="-9.0899999999999995E-2"/>
+    <n v="6.5699999999999995E-2"/>
   </r>
   <r>
     <x v="0"/>
@@ -481,14 +494,20 @@
   <r>
     <x v="0"/>
     <x v="2"/>
+    <x v="0"/>
+    <n v="-0.1474"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
     <x v="4"/>
     <n v="0.14549999999999999"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
-    <x v="0"/>
-    <n v="-2.6499999999999999E-2"/>
+    <x v="1"/>
+    <n v="-0.1159"/>
   </r>
   <r>
     <x v="0"/>
@@ -499,38 +518,38 @@
   <r>
     <x v="0"/>
     <x v="3"/>
-    <x v="1"/>
-    <n v="5.9799999999999999E-2"/>
+    <x v="3"/>
+    <n v="-3.6600000000000001E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.13519999999999999"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
     <x v="2"/>
-    <n v="-0.20250000000000001"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="-3.6600000000000001E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="0.10580000000000001"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="1.43E-2"/>
+    <n v="-0.24329999999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="-0.62629999999999997"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.2366"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="0.13270000000000001"/>
+    <n v="8.0199999999999994E-2"/>
   </r>
   <r>
     <x v="1"/>
@@ -547,50 +566,44 @@
   <r>
     <x v="1"/>
     <x v="1"/>
-    <x v="2"/>
-    <n v="-0.52869999999999995"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0.22520000000000001"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="-0.69750000000000001"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
     <x v="4"/>
     <n v="-0.13109999999999999"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
+    <x v="1"/>
+    <n v="0.13489999999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
     <x v="3"/>
     <n v="-0.42109999999999997"/>
   </r>
   <r>
     <x v="1"/>
+    <x v="1"/>
     <x v="2"/>
-    <x v="1"/>
-    <n v="0.57720000000000005"/>
+    <n v="-0.64229999999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="-5.4800000000000001E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.89539999999999997"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
     <x v="2"/>
-    <n v="-0.4083"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="0.86499999999999999"/>
+    <n v="-0.17480000000000001"/>
   </r>
   <r>
     <x v="1"/>
@@ -601,14 +614,20 @@
   <r>
     <x v="1"/>
     <x v="2"/>
+    <x v="0"/>
+    <n v="0.41749999999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
     <x v="4"/>
     <n v="0.78269999999999995"/>
   </r>
   <r>
     <x v="1"/>
     <x v="3"/>
-    <x v="0"/>
-    <n v="0.64300000000000002"/>
+    <x v="1"/>
+    <n v="-0.18079999999999999"/>
   </r>
   <r>
     <x v="1"/>
@@ -619,27 +638,27 @@
   <r>
     <x v="1"/>
     <x v="3"/>
-    <x v="1"/>
-    <n v="0.74860000000000004"/>
+    <x v="3"/>
+    <n v="0.80010000000000003"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="-0.14050000000000001"/>
   </r>
   <r>
     <x v="1"/>
     <x v="3"/>
     <x v="2"/>
-    <n v="0.4103"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="0.80010000000000003"/>
+    <n v="-0.25750000000000001"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58DF4B50-4824-F44A-B2BE-518B5E68F746}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:N11" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58DF4B50-4824-F44A-B2BE-518B5E68F746}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:L11" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0">
       <items count="3">
@@ -659,11 +678,11 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
-        <item x="2"/>
         <item x="4"/>
         <item x="3"/>
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -693,16 +712,22 @@
     </i>
   </rowItems>
   <colFields count="2">
+    <field x="0"/>
     <field x="1"/>
-    <field x="0"/>
   </colFields>
-  <colItems count="13">
+  <colItems count="11">
     <i>
       <x/>
       <x/>
     </i>
     <i r="1">
       <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
     </i>
     <i t="default">
       <x/>
@@ -714,28 +739,14 @@
     <i r="1">
       <x v="1"/>
     </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
     <i t="default">
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="default">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="default">
-      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -1053,362 +1064,552 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED3FDC8-89CA-9840-B7EA-490778D642F5}">
-  <dimension ref="A3:N11"/>
+  <dimension ref="A2:V11"/>
   <sheetViews>
-    <sheetView zoomScale="186" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N3" s="2"/>
+      <c r="O3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="16"/>
+      <c r="S3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="16"/>
+      <c r="U3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="16"/>
+    </row>
+    <row r="4" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="12" t="str">
+        <f>A6</f>
+        <v>inflation</v>
+      </c>
+      <c r="O5" s="19">
+        <f>GETPIVOTDATA("Correlation",$A$3,"Comparison","Federal Funds Rate","Year_Range","2006_2007","Keyword","inflation")</f>
+        <v>-0.2366</v>
+      </c>
+      <c r="P5" s="20">
+        <f>GETPIVOTDATA("Correlation",$A$3,"Comparison","S&amp;P 500 Change ","Year_Range","2006_2007","Keyword","inflation")</f>
+        <v>-0.13819999999999999</v>
+      </c>
+      <c r="Q5" s="19">
+        <f>C6</f>
+        <v>-0.13109999999999999</v>
+      </c>
+      <c r="R5" s="20">
+        <f>H6</f>
+        <v>-2.3599999999999999E-2</v>
+      </c>
+      <c r="S5" s="19">
+        <f>D6</f>
+        <v>0.78269999999999995</v>
+      </c>
+      <c r="T5" s="20">
+        <f>I6</f>
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="U5" s="19">
+        <f>E6</f>
+        <v>0.58320000000000005</v>
+      </c>
+      <c r="V5" s="20">
+        <f>J6</f>
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.13270000000000001</v>
-      </c>
-      <c r="C6">
-        <v>-0.23530000000000001</v>
-      </c>
-      <c r="D6">
-        <v>-0.1026</v>
-      </c>
-      <c r="E6">
-        <v>-0.52869999999999995</v>
-      </c>
-      <c r="F6">
-        <v>1.52E-2</v>
-      </c>
-      <c r="G6">
-        <v>-0.51349999999999996</v>
-      </c>
-      <c r="H6">
-        <v>-0.4083</v>
-      </c>
-      <c r="I6">
-        <v>0.1263</v>
-      </c>
-      <c r="J6">
-        <v>-0.28200000000000003</v>
-      </c>
-      <c r="K6">
-        <v>0.4103</v>
-      </c>
-      <c r="L6">
-        <v>-0.20250000000000001</v>
-      </c>
-      <c r="M6">
-        <v>0.20779999999999998</v>
-      </c>
-      <c r="N6">
-        <v>-0.69030000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B6" s="18">
+        <v>-0.2366</v>
+      </c>
+      <c r="C6" s="18">
+        <v>-0.13109999999999999</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0.78269999999999995</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0.58320000000000005</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="G6" s="18">
+        <v>-0.13819999999999999</v>
+      </c>
+      <c r="H6" s="18">
+        <v>-2.3599999999999999E-2</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="J6" s="18">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="K6" s="18">
+        <v>-1.2800000000000009E-2</v>
+      </c>
+      <c r="L6" s="18">
+        <v>0.98539999999999994</v>
+      </c>
+      <c r="N6" s="12" t="str">
+        <f t="shared" ref="N6:N9" si="0">A7</f>
+        <v>interest</v>
+      </c>
+      <c r="O6" s="19">
+        <f>GETPIVOTDATA("Correlation",$A$3,"Comparison","Federal Funds Rate","Year_Range","2006_2007","Keyword","interest")</f>
+        <v>-2.63E-2</v>
+      </c>
+      <c r="P6" s="20">
+        <f>GETPIVOTDATA("Correlation",$A$3,"Comparison","S&amp;P 500 Change ","Year_Range","2006_2007","Keyword","interest")</f>
+        <v>-0.20319999999999999</v>
+      </c>
+      <c r="Q6" s="19">
+        <f t="shared" ref="Q6:Q9" si="1">C7</f>
+        <v>-0.42109999999999997</v>
+      </c>
+      <c r="R6" s="20">
+        <f t="shared" ref="R6:R9" si="2">H7</f>
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="S6" s="19">
+        <f t="shared" ref="S6:S9" si="3">D7</f>
+        <v>0.49659999999999999</v>
+      </c>
+      <c r="T6" s="20">
+        <f t="shared" ref="T6:T9" si="4">I7</f>
+        <v>-9.98E-2</v>
+      </c>
+      <c r="U6" s="19">
+        <f t="shared" ref="U6:U9" si="5">E7</f>
+        <v>0.80010000000000003</v>
+      </c>
+      <c r="V6" s="20">
+        <f t="shared" ref="V6:V9" si="6">J7</f>
+        <v>-3.6600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>-0.2366</v>
-      </c>
-      <c r="C7">
-        <v>-0.13819999999999999</v>
-      </c>
-      <c r="D7">
-        <v>-0.37480000000000002</v>
-      </c>
-      <c r="E7">
-        <v>-0.13109999999999999</v>
-      </c>
-      <c r="F7">
-        <v>-2.3599999999999999E-2</v>
-      </c>
-      <c r="G7">
-        <v>-0.1547</v>
-      </c>
-      <c r="H7">
-        <v>0.78269999999999995</v>
-      </c>
-      <c r="I7">
-        <v>0.14549999999999999</v>
-      </c>
-      <c r="J7">
-        <v>0.92819999999999991</v>
-      </c>
-      <c r="K7">
-        <v>0.58320000000000005</v>
-      </c>
-      <c r="L7">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="M7">
-        <v>0.5867</v>
-      </c>
-      <c r="N7">
-        <v>0.98539999999999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18">
+        <v>-2.63E-2</v>
+      </c>
+      <c r="C7" s="18">
+        <v>-0.42109999999999997</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0.49659999999999999</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0.80010000000000003</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0.84930000000000005</v>
+      </c>
+      <c r="G7" s="18">
+        <v>-0.20319999999999999</v>
+      </c>
+      <c r="H7" s="18">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="I7" s="18">
+        <v>-9.98E-2</v>
+      </c>
+      <c r="J7" s="18">
+        <v>-3.6600000000000001E-2</v>
+      </c>
+      <c r="K7" s="18">
+        <v>-0.25990000000000002</v>
+      </c>
+      <c r="L7" s="18">
+        <v>0.58940000000000015</v>
+      </c>
+      <c r="N7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>invest</v>
+      </c>
+      <c r="O7" s="21">
+        <f>GETPIVOTDATA("Correlation",$A$3,"Comparison","Federal Funds Rate","Year_Range","2006_2007","Keyword","invest")</f>
+        <v>-0.62629999999999997</v>
+      </c>
+      <c r="P7" s="22">
+        <f>GETPIVOTDATA("Correlation",$A$3,"Comparison","S&amp;P 500 Change ","Year_Range","2006_2007","Keyword","invest")</f>
+        <v>-0.32279999999999998</v>
+      </c>
+      <c r="Q7" s="19">
+        <f t="shared" si="1"/>
+        <v>-5.4800000000000001E-2</v>
+      </c>
+      <c r="R7" s="20">
+        <f t="shared" si="2"/>
+        <v>0.43659999999999999</v>
+      </c>
+      <c r="S7" s="19">
+        <f t="shared" si="3"/>
+        <v>0.41749999999999998</v>
+      </c>
+      <c r="T7" s="20">
+        <f t="shared" si="4"/>
+        <v>-0.1474</v>
+      </c>
+      <c r="U7" s="19">
+        <f t="shared" si="5"/>
+        <v>-0.14050000000000001</v>
+      </c>
+      <c r="V7" s="20">
+        <f t="shared" si="6"/>
+        <v>0.13519999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>-2.63E-2</v>
-      </c>
-      <c r="C8">
-        <v>-0.20319999999999999</v>
-      </c>
-      <c r="D8">
-        <v>-0.22949999999999998</v>
-      </c>
-      <c r="E8">
-        <v>-0.42109999999999997</v>
-      </c>
-      <c r="F8">
-        <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="G8">
-        <v>-0.34139999999999998</v>
-      </c>
-      <c r="H8">
-        <v>0.49659999999999999</v>
-      </c>
-      <c r="I8">
-        <v>-9.98E-2</v>
-      </c>
-      <c r="J8">
-        <v>0.39679999999999999</v>
-      </c>
-      <c r="K8">
-        <v>0.80010000000000003</v>
-      </c>
-      <c r="L8">
-        <v>-3.6600000000000001E-2</v>
-      </c>
-      <c r="M8">
-        <v>0.76350000000000007</v>
-      </c>
-      <c r="N8">
-        <v>0.58940000000000015</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="B8" s="18">
+        <v>-0.62629999999999997</v>
+      </c>
+      <c r="C8" s="18">
+        <v>-5.4800000000000001E-2</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0.41749999999999998</v>
+      </c>
+      <c r="E8" s="18">
+        <v>-0.14050000000000001</v>
+      </c>
+      <c r="F8" s="18">
+        <v>-0.40409999999999996</v>
+      </c>
+      <c r="G8" s="18">
+        <v>-0.32279999999999998</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0.43659999999999999</v>
+      </c>
+      <c r="I8" s="18">
+        <v>-0.1474</v>
+      </c>
+      <c r="J8" s="18">
+        <v>0.13519999999999999</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0.1016</v>
+      </c>
+      <c r="L8" s="18">
+        <v>-0.30249999999999988</v>
+      </c>
+      <c r="N8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>trade</v>
+      </c>
+      <c r="O8" s="21">
+        <f>GETPIVOTDATA("Correlation",$A$3,"Comparison","Federal Funds Rate","Year_Range","2006_2007","Keyword","trade")</f>
+        <v>0.2366</v>
+      </c>
+      <c r="P8" s="22">
+        <f>GETPIVOTDATA("Correlation",$A$3,"Comparison","S&amp;P 500 Change ","Year_Range","2006_2007","Keyword","trade")</f>
+        <v>-0.2387</v>
+      </c>
+      <c r="Q8" s="19">
+        <f t="shared" si="1"/>
+        <v>0.13489999999999999</v>
+      </c>
+      <c r="R8" s="20">
+        <f t="shared" si="2"/>
+        <v>0.61270000000000002</v>
+      </c>
+      <c r="S8" s="19">
+        <f t="shared" si="3"/>
+        <v>0.89539999999999997</v>
+      </c>
+      <c r="T8" s="20">
+        <f t="shared" si="4"/>
+        <v>-0.127</v>
+      </c>
+      <c r="U8" s="19">
+        <f t="shared" si="5"/>
+        <v>-0.18079999999999999</v>
+      </c>
+      <c r="V8" s="20">
+        <f t="shared" si="6"/>
+        <v>-0.1159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>0.10580000000000001</v>
-      </c>
-      <c r="C9">
-        <v>-0.18579999999999999</v>
-      </c>
-      <c r="D9">
-        <v>-7.9999999999999988E-2</v>
-      </c>
-      <c r="E9">
-        <v>0.22520000000000001</v>
-      </c>
-      <c r="F9">
-        <v>5.5100000000000003E-2</v>
-      </c>
-      <c r="G9">
-        <v>0.28029999999999999</v>
-      </c>
-      <c r="H9">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="I9">
-        <v>-9.0899999999999995E-2</v>
-      </c>
-      <c r="J9">
-        <v>0.77410000000000001</v>
-      </c>
-      <c r="K9">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="L9">
-        <v>-2.6499999999999999E-2</v>
-      </c>
-      <c r="M9">
-        <v>0.61650000000000005</v>
-      </c>
-      <c r="N9">
-        <v>1.5909000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="B9" s="18">
+        <v>0.2366</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0.13489999999999999</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0.89539999999999997</v>
+      </c>
+      <c r="E9" s="18">
+        <v>-0.18079999999999999</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1.0860999999999998</v>
+      </c>
+      <c r="G9" s="18">
+        <v>-0.2387</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0.61270000000000002</v>
+      </c>
+      <c r="I9" s="18">
+        <v>-0.127</v>
+      </c>
+      <c r="J9" s="18">
+        <v>-0.1159</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0.13109999999999999</v>
+      </c>
+      <c r="L9" s="18">
+        <v>1.2171999999999996</v>
+      </c>
+      <c r="N9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>uncertain</v>
+      </c>
+      <c r="O9" s="21">
+        <f>GETPIVOTDATA("Correlation",$A$3,"Comparison","Federal Funds Rate","Year_Range","2006_2007","Keyword","uncertain")</f>
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="P9" s="22">
+        <f>GETPIVOTDATA("Correlation",$A$3,"Comparison","S&amp;P 500 Change ","Year_Range","2006_2007","Keyword","uncertain")</f>
+        <v>-0.31219999999999998</v>
+      </c>
+      <c r="Q9" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.64229999999999998</v>
+      </c>
+      <c r="R9" s="20">
+        <f t="shared" si="2"/>
+        <v>-0.41639999999999999</v>
+      </c>
+      <c r="S9" s="19">
+        <f t="shared" si="3"/>
+        <v>-0.17480000000000001</v>
+      </c>
+      <c r="T9" s="20">
+        <f t="shared" si="4"/>
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="U9" s="19">
+        <f t="shared" si="5"/>
+        <v>-0.25750000000000001</v>
+      </c>
+      <c r="V9" s="20">
+        <f t="shared" si="6"/>
+        <v>-0.24329999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>1.43E-2</v>
-      </c>
-      <c r="C10">
-        <v>-0.14599999999999999</v>
-      </c>
-      <c r="D10">
-        <v>-0.13169999999999998</v>
-      </c>
-      <c r="E10">
-        <v>-0.69750000000000001</v>
-      </c>
-      <c r="F10">
-        <v>-0.313</v>
-      </c>
-      <c r="G10">
-        <v>-1.0105</v>
-      </c>
-      <c r="H10">
-        <v>0.57720000000000005</v>
-      </c>
-      <c r="I10">
-        <v>-0.13009999999999999</v>
-      </c>
-      <c r="J10">
-        <v>0.44710000000000005</v>
-      </c>
-      <c r="K10">
-        <v>0.74860000000000004</v>
-      </c>
-      <c r="L10">
-        <v>5.9799999999999999E-2</v>
-      </c>
-      <c r="M10">
-        <v>0.80840000000000001</v>
-      </c>
-      <c r="N10">
-        <v>0.11330000000000021</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="B10" s="18">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="C10" s="18">
+        <v>-0.64229999999999998</v>
+      </c>
+      <c r="D10" s="18">
+        <v>-0.17480000000000001</v>
+      </c>
+      <c r="E10" s="18">
+        <v>-0.25750000000000001</v>
+      </c>
+      <c r="F10" s="18">
+        <v>-0.99440000000000017</v>
+      </c>
+      <c r="G10" s="18">
+        <v>-0.31219999999999998</v>
+      </c>
+      <c r="H10" s="18">
+        <v>-0.41639999999999999</v>
+      </c>
+      <c r="I10" s="18">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="J10" s="18">
+        <v>-0.24329999999999999</v>
+      </c>
+      <c r="K10" s="18">
+        <v>-0.90619999999999989</v>
+      </c>
+      <c r="L10" s="18">
+        <v>-1.9006000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
-        <v>-1.0099999999999977E-2</v>
-      </c>
-      <c r="C11">
-        <v>-0.90849999999999997</v>
-      </c>
-      <c r="D11">
-        <v>-0.91860000000000008</v>
-      </c>
-      <c r="E11">
-        <v>-1.5531999999999999</v>
-      </c>
-      <c r="F11">
-        <v>-0.18660000000000002</v>
-      </c>
-      <c r="G11">
-        <v>-1.7397999999999998</v>
-      </c>
-      <c r="H11">
-        <v>2.3132000000000001</v>
-      </c>
-      <c r="I11">
-        <v>-4.9000000000000002E-2</v>
-      </c>
-      <c r="J11">
-        <v>2.2641999999999998</v>
-      </c>
-      <c r="K11">
-        <v>3.1852000000000005</v>
-      </c>
-      <c r="L11">
-        <v>-0.20230000000000001</v>
-      </c>
-      <c r="M11">
-        <v>2.9828999999999999</v>
-      </c>
-      <c r="N11">
-        <v>2.5887000000000007</v>
+      <c r="B11" s="18">
+        <v>-0.57240000000000002</v>
+      </c>
+      <c r="C11" s="18">
+        <v>-1.1143999999999998</v>
+      </c>
+      <c r="D11" s="18">
+        <v>2.4174000000000002</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0.80449999999999999</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1.5350999999999999</v>
+      </c>
+      <c r="G11" s="18">
+        <v>-1.2150999999999998</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="I11" s="18">
+        <v>-0.16300000000000003</v>
+      </c>
+      <c r="J11" s="18">
+        <v>-0.2571</v>
+      </c>
+      <c r="K11" s="18">
+        <v>-0.94619999999999993</v>
+      </c>
+      <c r="L11" s="18">
+        <v>0.58889999999999976</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="R5:R9" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1416,8 +1617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BB6CD5-4586-DB47-907B-605FE3263EE1}">
   <dimension ref="A3:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="176" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50:G54"/>
+    <sheetView topLeftCell="C6" zoomScale="134" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48:O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1438,13 +1639,13 @@
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="1"/>
@@ -1458,10 +1659,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>-0.18579999999999999</v>
+        <v>-0.32279999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1472,10 +1673,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>-0.14599999999999999</v>
+        <v>-0.2387</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1486,10 +1687,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>-0.23530000000000001</v>
+        <v>-0.31219999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1528,10 +1729,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>1.52E-2</v>
+        <v>-2.3599999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1542,10 +1743,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>5.5100000000000003E-2</v>
+        <v>0.61270000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1556,10 +1757,10 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>-0.313</v>
+        <v>7.9699999999999993E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1570,10 +1771,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>-2.3599999999999999E-2</v>
+        <v>-0.41639999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1584,10 +1785,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>7.9699999999999993E-2</v>
+        <v>0.43659999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1598,10 +1799,10 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>-0.13009999999999999</v>
+        <v>-0.127</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1612,10 +1813,10 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>0.1263</v>
+        <v>6.5699999999999995E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1626,10 +1827,10 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>-9.0899999999999995E-2</v>
+        <v>-9.98E-2</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -1640,10 +1841,10 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>-9.98E-2</v>
+        <v>-0.1474</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
@@ -1669,10 +1870,10 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>-2.6499999999999999E-2</v>
+        <v>-0.1159</v>
       </c>
       <c r="S19" s="4"/>
     </row>
@@ -1699,10 +1900,10 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>5.9799999999999999E-2</v>
+        <v>-3.6600000000000001E-2</v>
       </c>
       <c r="S21" s="4"/>
     </row>
@@ -1714,10 +1915,10 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D22">
-        <v>-0.20250000000000001</v>
+        <v>0.13519999999999999</v>
       </c>
       <c r="S22" s="4"/>
     </row>
@@ -1729,10 +1930,10 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>-3.6600000000000001E-2</v>
+        <v>-0.24329999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
@@ -1743,10 +1944,10 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>0.10580000000000001</v>
+        <v>-0.62629999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -1757,10 +1958,10 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>1.43E-2</v>
+        <v>0.2366</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
@@ -1771,10 +1972,10 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>0.13270000000000001</v>
+        <v>8.0199999999999994E-2</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
@@ -1813,10 +2014,10 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>-0.52869999999999995</v>
+        <v>-0.13109999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
@@ -1827,10 +2028,10 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>0.22520000000000001</v>
+        <v>0.13489999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
@@ -1841,10 +2042,10 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>-0.69750000000000001</v>
+        <v>-0.42109999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
@@ -1855,10 +2056,10 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D32">
-        <v>-0.13109999999999999</v>
+        <v>-0.64229999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -1869,10 +2070,10 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D33">
-        <v>-0.42109999999999997</v>
+        <v>-5.4800000000000001E-2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -1883,10 +2084,10 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D34">
-        <v>0.57720000000000005</v>
+        <v>0.89539999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -1897,10 +2098,10 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D35">
-        <v>-0.4083</v>
+        <v>-0.17480000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -1911,10 +2112,10 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <v>0.86499999999999999</v>
+        <v>0.49659999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -1925,10 +2126,10 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D37">
-        <v>0.49659999999999999</v>
+        <v>0.41749999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -1953,10 +2154,10 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>0.64300000000000002</v>
+        <v>-0.18079999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
@@ -1981,10 +2182,10 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D41">
-        <v>0.74860000000000004</v>
+        <v>0.80010000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -1995,10 +2196,10 @@
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D42">
-        <v>0.4103</v>
+        <v>-0.14050000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -2009,41 +2210,41 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D43">
-        <v>0.80010000000000003</v>
+        <v>-0.25750000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
     </row>
     <row r="48" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G48" s="2"/>
-      <c r="H48" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I48" s="15"/>
-      <c r="J48" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K48" s="15"/>
-      <c r="L48" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M48" s="15"/>
-      <c r="N48" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="O48" s="15"/>
+      <c r="H48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="16"/>
+      <c r="J48" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" s="16"/>
+      <c r="L48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="16"/>
+      <c r="N48" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O48" s="16"/>
     </row>
     <row r="49" spans="7:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G49" s="11" t="s">
@@ -2077,7 +2278,7 @@
     <row r="50" spans="7:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G50" s="12" t="str">
         <f>C4</f>
-        <v>market</v>
+        <v>invest</v>
       </c>
       <c r="H50" s="7">
         <v>0.13270000000000001</v>
@@ -2107,7 +2308,7 @@
     <row r="51" spans="7:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G51" s="12" t="str">
         <f t="shared" ref="G51:G54" si="0">C5</f>
-        <v>rate</v>
+        <v>trade</v>
       </c>
       <c r="H51" s="7">
         <v>-0.2366</v>
@@ -2137,7 +2338,7 @@
     <row r="52" spans="7:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G52" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>credit</v>
+        <v>uncertain</v>
       </c>
       <c r="H52" s="9">
         <v>-2.63E-2</v>
@@ -2244,7 +2445,7 @@
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="237" workbookViewId="0">
+    <sheetView zoomScale="136" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
@@ -2262,22 +2463,22 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="15"/>
+      <c r="B1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">

--- a/Models/Fed Models/Four Models/Correlation Table/Four Models Correlation Table.xlsx
+++ b/Models/Fed Models/Four Models/Correlation Table/Four Models Correlation Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylenabors/Documents/GitHub/MS-Thesis/Models/Fed Models/Four Models/Correlation Table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EB5C6A-0025-CE49-A31C-A5170D83ECD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6D6AC8-6FA8-894E-A5D2-67F9CFA857BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="33340" xr2:uid="{8BF6D4F4-22AA-EC47-B46B-F3D2775721F4}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="32" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="34">
   <si>
     <t>Keyword</t>
   </si>
@@ -124,17 +124,32 @@
     <t>Federal Funds Rate Total</t>
   </si>
   <si>
-    <t>S&amp;P 500 Change  Total</t>
-  </si>
-  <si>
     <t>Fed Funds Rate</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S&amp;P 500 </t>
+  </si>
+  <si>
+    <t>S&amp;P 500 Total</t>
+  </si>
+  <si>
+    <t>2006 -2023</t>
+  </si>
+  <si>
+    <t>FEDFUNDS</t>
+  </si>
+  <si>
+    <t>Frequency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -173,6 +188,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -182,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -303,11 +331,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -331,6 +407,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -341,18 +441,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,14 +460,14 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Microsoft Office User" refreshedDate="45123.741129050926" missingItemsLimit="0" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="40" xr:uid="{959BCDC2-7E8D-984E-84A9-427C6FBC2CD7}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Microsoft Office User" refreshedDate="45124.698766666668" missingItemsLimit="0" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="40" xr:uid="{959BCDC2-7E8D-984E-84A9-427C6FBC2CD7}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:D43" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="Comparison" numFmtId="0">
       <sharedItems count="2">
-        <s v="S&amp;P 500 Change "/>
+        <s v="S&amp;P 500"/>
         <s v="Federal Funds Rate"/>
       </sharedItems>
     </cacheField>
@@ -393,14 +482,14 @@
     <cacheField name="Keyword" numFmtId="0">
       <sharedItems count="5">
         <s v="invest"/>
-        <s v="trade"/>
         <s v="uncertain"/>
         <s v="interest"/>
         <s v="inflation"/>
+        <s v="trade"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Correlation" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.64229999999999998" maxValue="0.89539999999999997"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.98029999999999995" maxValue="0.80010000000000003"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -417,247 +506,247 @@
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="-0.32279999999999998"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="-0.2387"/>
+    <n v="-0.82140000000000002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="-0.2036"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="2"/>
-    <n v="-0.31219999999999998"/>
+    <n v="-0.65739999999999998"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="3"/>
-    <n v="-0.20319999999999999"/>
+    <n v="-0.81110000000000004"/>
   </r>
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="4"/>
-    <n v="-0.13819999999999999"/>
+    <n v="-0.98029999999999995"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="-0.48920000000000002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="-0.4244"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="-0.36409999999999998"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="9.8199999999999996E-2"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="4"/>
-    <n v="-2.3599999999999999E-2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0.61270000000000002"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="7.9699999999999993E-2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
+    <n v="-0.79769999999999996"/>
+  </r>
+  <r>
+    <x v="0"/>
     <x v="2"/>
-    <n v="-0.41639999999999999"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="0.43659999999999999"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="-0.127"/>
+    <x v="1"/>
+    <n v="-0.36620000000000003"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
     <x v="2"/>
-    <n v="6.5699999999999995E-2"/>
+    <n v="0.43059999999999998"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="0.1089"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.42220000000000002"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
     <x v="3"/>
-    <n v="-9.98E-2"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="0.79730000000000001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="7.17E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
     <x v="2"/>
-    <x v="0"/>
-    <n v="-0.1474"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="8.3799999999999999E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="-4.7899999999999998E-2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="7.6E-3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="-0.55700000000000005"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="-0.62629999999999997"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="8.0199999999999994E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="-2.63E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="-0.2366"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="-9.2600000000000002E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="-0.13109999999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="-0.42109999999999997"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="-0.64229999999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="-5.4800000000000001E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="-0.46899999999999997"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="-0.17480000000000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="0.49659999999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="2"/>
     <x v="4"/>
-    <n v="0.14549999999999999"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="5.33E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.41749999999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
     <x v="3"/>
-    <x v="1"/>
-    <n v="-0.1159"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="0.78269999999999995"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="0.58320000000000005"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="0.80010000000000003"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="-0.14050000000000001"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="3"/>
     <x v="4"/>
-    <n v="3.5000000000000001E-3"/>
-  </r>
-  <r>
-    <x v="0"/>
+    <n v="0.64939999999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
     <x v="3"/>
-    <x v="3"/>
-    <n v="-3.6600000000000001E-2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="0.13519999999999999"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="2"/>
-    <n v="-0.24329999999999999"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="-0.62629999999999997"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <n v="0.2366"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <n v="8.0199999999999994E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <n v="-2.63E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="-0.2366"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="4"/>
-    <n v="-0.13109999999999999"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="0.13489999999999999"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="-0.42109999999999997"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <n v="-0.64229999999999998"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <n v="-5.4800000000000001E-2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <n v="0.89539999999999997"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="2"/>
-    <n v="-0.17480000000000001"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="3"/>
-    <n v="0.49659999999999999"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <n v="0.41749999999999998"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="4"/>
-    <n v="0.78269999999999995"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="1"/>
-    <n v="-0.18079999999999999"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="4"/>
-    <n v="0.58320000000000005"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="3"/>
-    <n v="0.80010000000000003"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <n v="-0.14050000000000001"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="2"/>
+    <x v="1"/>
     <n v="-0.25750000000000001"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58DF4B50-4824-F44A-B2BE-518B5E68F746}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58DF4B50-4824-F44A-B2BE-518B5E68F746}" name="PivotTable1" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:L11" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0">
@@ -678,11 +767,11 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
         <item x="4"/>
-        <item x="3"/>
-        <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1064,35 +1153,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED3FDC8-89CA-9840-B7EA-490778D642F5}">
-  <dimension ref="A2:V11"/>
+  <dimension ref="A2:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="24" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1100,24 +1182,28 @@
         <v>15</v>
       </c>
       <c r="N3" s="2"/>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="15" t="s">
+      <c r="P3" s="24"/>
+      <c r="Q3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="16"/>
-      <c r="S3" s="15" t="s">
+      <c r="R3" s="24"/>
+      <c r="S3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="16"/>
-      <c r="U3" s="15" t="s">
+      <c r="T3" s="24"/>
+      <c r="U3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="16"/>
-    </row>
-    <row r="4" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V3" s="24"/>
+      <c r="W3" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="X3" s="24"/>
+    </row>
+    <row r="4" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -1125,10 +1211,10 @@
         <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -1136,32 +1222,38 @@
       <c r="N4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="S4" s="5" t="s">
+      <c r="U4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="U4" s="5" t="s">
+      <c r="W4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1193,417 +1285,585 @@
         <f>A6</f>
         <v>inflation</v>
       </c>
-      <c r="O5" s="19">
-        <f>GETPIVOTDATA("Correlation",$A$3,"Comparison","Federal Funds Rate","Year_Range","2006_2007","Keyword","inflation")</f>
+      <c r="O5" s="15">
+        <f>B6</f>
         <v>-0.2366</v>
       </c>
-      <c r="P5" s="20">
-        <f>GETPIVOTDATA("Correlation",$A$3,"Comparison","S&amp;P 500 Change ","Year_Range","2006_2007","Keyword","inflation")</f>
-        <v>-0.13819999999999999</v>
-      </c>
-      <c r="Q5" s="19">
+      <c r="P5" s="16">
+        <f>G6</f>
+        <v>-0.81110000000000004</v>
+      </c>
+      <c r="Q5" s="15">
         <f>C6</f>
         <v>-0.13109999999999999</v>
       </c>
-      <c r="R5" s="20">
+      <c r="R5" s="16">
         <f>H6</f>
-        <v>-2.3599999999999999E-2</v>
-      </c>
-      <c r="S5" s="19">
+        <v>-0.48920000000000002</v>
+      </c>
+      <c r="S5" s="15">
         <f>D6</f>
         <v>0.78269999999999995</v>
       </c>
-      <c r="T5" s="20">
+      <c r="T5" s="16">
         <f>I6</f>
-        <v>0.14549999999999999</v>
-      </c>
-      <c r="U5" s="19">
+        <v>0.79730000000000001</v>
+      </c>
+      <c r="U5" s="15">
         <f>E6</f>
         <v>0.58320000000000005</v>
       </c>
-      <c r="V5" s="20">
+      <c r="V5" s="16">
         <f>J6</f>
-        <v>3.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>7.17E-2</v>
+      </c>
+      <c r="W5" s="21">
+        <f>J24</f>
+        <v>0.50829999999999997</v>
+      </c>
+      <c r="X5" s="22">
+        <f>J32</f>
+        <v>0.33229999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="26">
         <v>-0.2366</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="26">
         <v>-0.13109999999999999</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="26">
         <v>0.78269999999999995</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="26">
         <v>0.58320000000000005</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="26">
         <v>0.99819999999999998</v>
       </c>
-      <c r="G6" s="18">
-        <v>-0.13819999999999999</v>
-      </c>
-      <c r="H6" s="18">
-        <v>-2.3599999999999999E-2</v>
-      </c>
-      <c r="I6" s="18">
-        <v>0.14549999999999999</v>
-      </c>
-      <c r="J6" s="18">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="K6" s="18">
-        <v>-1.2800000000000009E-2</v>
-      </c>
-      <c r="L6" s="18">
-        <v>0.98539999999999994</v>
+      <c r="G6" s="26">
+        <v>-0.81110000000000004</v>
+      </c>
+      <c r="H6" s="26">
+        <v>-0.48920000000000002</v>
+      </c>
+      <c r="I6" s="26">
+        <v>0.79730000000000001</v>
+      </c>
+      <c r="J6" s="26">
+        <v>7.17E-2</v>
+      </c>
+      <c r="K6" s="26">
+        <v>-0.43130000000000002</v>
+      </c>
+      <c r="L6" s="26">
+        <v>0.56689999999999996</v>
       </c>
       <c r="N6" s="12" t="str">
         <f t="shared" ref="N6:N9" si="0">A7</f>
         <v>interest</v>
       </c>
-      <c r="O6" s="19">
-        <f>GETPIVOTDATA("Correlation",$A$3,"Comparison","Federal Funds Rate","Year_Range","2006_2007","Keyword","interest")</f>
+      <c r="O6" s="15">
+        <f t="shared" ref="O6:O9" si="1">B7</f>
         <v>-2.63E-2</v>
       </c>
-      <c r="P6" s="20">
-        <f>GETPIVOTDATA("Correlation",$A$3,"Comparison","S&amp;P 500 Change ","Year_Range","2006_2007","Keyword","interest")</f>
-        <v>-0.20319999999999999</v>
-      </c>
-      <c r="Q6" s="19">
-        <f t="shared" ref="Q6:Q9" si="1">C7</f>
+      <c r="P6" s="16">
+        <f t="shared" ref="P6:P9" si="2">G7</f>
+        <v>-0.65739999999999998</v>
+      </c>
+      <c r="Q6" s="15">
+        <f t="shared" ref="Q6:Q9" si="3">C7</f>
         <v>-0.42109999999999997</v>
       </c>
-      <c r="R6" s="20">
-        <f t="shared" ref="R6:R9" si="2">H7</f>
-        <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="S6" s="19">
-        <f t="shared" ref="S6:S9" si="3">D7</f>
+      <c r="R6" s="16">
+        <f t="shared" ref="R6:R9" si="4">H7</f>
+        <v>-0.4244</v>
+      </c>
+      <c r="S6" s="15">
+        <f t="shared" ref="S6:S9" si="5">D7</f>
         <v>0.49659999999999999</v>
       </c>
-      <c r="T6" s="20">
-        <f t="shared" ref="T6:T9" si="4">I7</f>
-        <v>-9.98E-2</v>
-      </c>
-      <c r="U6" s="19">
-        <f t="shared" ref="U6:U9" si="5">E7</f>
+      <c r="T6" s="16">
+        <f t="shared" ref="T6:T9" si="6">I7</f>
+        <v>0.43059999999999998</v>
+      </c>
+      <c r="U6" s="15">
+        <f t="shared" ref="U6:U9" si="7">E7</f>
         <v>0.80010000000000003</v>
       </c>
-      <c r="V6" s="20">
-        <f t="shared" ref="V6:V9" si="6">J7</f>
-        <v>-3.6600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V6" s="16">
+        <f t="shared" ref="V6:V9" si="8">J7</f>
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="W6" s="21">
+        <f t="shared" ref="W6:W9" si="9">J25</f>
+        <v>0.59470000000000001</v>
+      </c>
+      <c r="X6" s="22">
+        <f t="shared" ref="X6:X9" si="10">J33</f>
+        <v>-9.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="26">
         <v>-2.63E-2</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="26">
         <v>-0.42109999999999997</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="26">
         <v>0.49659999999999999</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="26">
         <v>0.80010000000000003</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="26">
         <v>0.84930000000000005</v>
       </c>
-      <c r="G7" s="18">
-        <v>-0.20319999999999999</v>
-      </c>
-      <c r="H7" s="18">
-        <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="I7" s="18">
-        <v>-9.98E-2</v>
-      </c>
-      <c r="J7" s="18">
-        <v>-3.6600000000000001E-2</v>
-      </c>
-      <c r="K7" s="18">
-        <v>-0.25990000000000002</v>
-      </c>
-      <c r="L7" s="18">
-        <v>0.58940000000000015</v>
+      <c r="G7" s="26">
+        <v>-0.65739999999999998</v>
+      </c>
+      <c r="H7" s="26">
+        <v>-0.4244</v>
+      </c>
+      <c r="I7" s="26">
+        <v>0.43059999999999998</v>
+      </c>
+      <c r="J7" s="26">
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="K7" s="26">
+        <v>-0.5673999999999999</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0.28190000000000004</v>
       </c>
       <c r="N7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>invest</v>
       </c>
-      <c r="O7" s="21">
-        <f>GETPIVOTDATA("Correlation",$A$3,"Comparison","Federal Funds Rate","Year_Range","2006_2007","Keyword","invest")</f>
+      <c r="O7" s="15">
+        <f t="shared" si="1"/>
         <v>-0.62629999999999997</v>
       </c>
-      <c r="P7" s="22">
-        <f>GETPIVOTDATA("Correlation",$A$3,"Comparison","S&amp;P 500 Change ","Year_Range","2006_2007","Keyword","invest")</f>
-        <v>-0.32279999999999998</v>
-      </c>
-      <c r="Q7" s="19">
-        <f t="shared" si="1"/>
+      <c r="P7" s="16">
+        <f t="shared" si="2"/>
+        <v>-0.82140000000000002</v>
+      </c>
+      <c r="Q7" s="15">
+        <f t="shared" si="3"/>
         <v>-5.4800000000000001E-2</v>
       </c>
-      <c r="R7" s="20">
-        <f t="shared" si="2"/>
-        <v>0.43659999999999999</v>
-      </c>
-      <c r="S7" s="19">
-        <f t="shared" si="3"/>
+      <c r="R7" s="16">
+        <f t="shared" si="4"/>
+        <v>9.8199999999999996E-2</v>
+      </c>
+      <c r="S7" s="15">
+        <f t="shared" si="5"/>
         <v>0.41749999999999998</v>
       </c>
-      <c r="T7" s="20">
-        <f t="shared" si="4"/>
-        <v>-0.1474</v>
-      </c>
-      <c r="U7" s="19">
-        <f t="shared" si="5"/>
+      <c r="T7" s="16">
+        <f t="shared" si="6"/>
+        <v>0.42220000000000002</v>
+      </c>
+      <c r="U7" s="15">
+        <f t="shared" si="7"/>
         <v>-0.14050000000000001</v>
       </c>
-      <c r="V7" s="20">
-        <f t="shared" si="6"/>
-        <v>0.13519999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="V7" s="16">
+        <f t="shared" si="8"/>
+        <v>-4.7899999999999998E-2</v>
+      </c>
+      <c r="W7" s="21">
+        <f t="shared" si="9"/>
+        <v>0.5232</v>
+      </c>
+      <c r="X7" s="22">
+        <f t="shared" si="10"/>
+        <v>-6.25E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="26">
         <v>-0.62629999999999997</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="26">
         <v>-5.4800000000000001E-2</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="26">
         <v>0.41749999999999998</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="26">
         <v>-0.14050000000000001</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="26">
         <v>-0.40409999999999996</v>
       </c>
-      <c r="G8" s="18">
-        <v>-0.32279999999999998</v>
-      </c>
-      <c r="H8" s="18">
-        <v>0.43659999999999999</v>
-      </c>
-      <c r="I8" s="18">
-        <v>-0.1474</v>
-      </c>
-      <c r="J8" s="18">
-        <v>0.13519999999999999</v>
-      </c>
-      <c r="K8" s="18">
-        <v>0.1016</v>
-      </c>
-      <c r="L8" s="18">
-        <v>-0.30249999999999988</v>
+      <c r="G8" s="26">
+        <v>-0.82140000000000002</v>
+      </c>
+      <c r="H8" s="26">
+        <v>9.8199999999999996E-2</v>
+      </c>
+      <c r="I8" s="26">
+        <v>0.42220000000000002</v>
+      </c>
+      <c r="J8" s="26">
+        <v>-4.7899999999999998E-2</v>
+      </c>
+      <c r="K8" s="26">
+        <v>-0.34890000000000004</v>
+      </c>
+      <c r="L8" s="26">
+        <v>-0.75299999999999989</v>
       </c>
       <c r="N8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>trade</v>
       </c>
-      <c r="O8" s="21">
-        <f>GETPIVOTDATA("Correlation",$A$3,"Comparison","Federal Funds Rate","Year_Range","2006_2007","Keyword","trade")</f>
-        <v>0.2366</v>
-      </c>
-      <c r="P8" s="22">
-        <f>GETPIVOTDATA("Correlation",$A$3,"Comparison","S&amp;P 500 Change ","Year_Range","2006_2007","Keyword","trade")</f>
-        <v>-0.2387</v>
-      </c>
-      <c r="Q8" s="19">
+      <c r="O8" s="15">
         <f t="shared" si="1"/>
-        <v>0.13489999999999999</v>
-      </c>
-      <c r="R8" s="20">
+        <v>-9.2600000000000002E-2</v>
+      </c>
+      <c r="P8" s="16">
         <f t="shared" si="2"/>
-        <v>0.61270000000000002</v>
-      </c>
-      <c r="S8" s="19">
+        <v>-0.98029999999999995</v>
+      </c>
+      <c r="Q8" s="15">
         <f t="shared" si="3"/>
-        <v>0.89539999999999997</v>
-      </c>
-      <c r="T8" s="20">
+        <v>-0.46899999999999997</v>
+      </c>
+      <c r="R8" s="16">
         <f t="shared" si="4"/>
-        <v>-0.127</v>
-      </c>
-      <c r="U8" s="19">
+        <v>-0.79769999999999996</v>
+      </c>
+      <c r="S8" s="15">
         <f t="shared" si="5"/>
-        <v>-0.18079999999999999</v>
-      </c>
-      <c r="V8" s="20">
+        <v>5.33E-2</v>
+      </c>
+      <c r="T8" s="16">
         <f t="shared" si="6"/>
-        <v>-0.1159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.1089</v>
+      </c>
+      <c r="U8" s="15">
+        <f t="shared" si="7"/>
+        <v>0.64939999999999998</v>
+      </c>
+      <c r="V8" s="16">
+        <f t="shared" si="8"/>
+        <v>7.6E-3</v>
+      </c>
+      <c r="W8" s="21">
+        <f t="shared" si="9"/>
+        <v>0.58479999999999999</v>
+      </c>
+      <c r="X8" s="22">
+        <f t="shared" si="10"/>
+        <v>-0.1182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="18">
-        <v>0.2366</v>
-      </c>
-      <c r="C9" s="18">
-        <v>0.13489999999999999</v>
-      </c>
-      <c r="D9" s="18">
-        <v>0.89539999999999997</v>
-      </c>
-      <c r="E9" s="18">
-        <v>-0.18079999999999999</v>
-      </c>
-      <c r="F9" s="18">
-        <v>1.0860999999999998</v>
-      </c>
-      <c r="G9" s="18">
-        <v>-0.2387</v>
-      </c>
-      <c r="H9" s="18">
-        <v>0.61270000000000002</v>
-      </c>
-      <c r="I9" s="18">
-        <v>-0.127</v>
-      </c>
-      <c r="J9" s="18">
-        <v>-0.1159</v>
-      </c>
-      <c r="K9" s="18">
-        <v>0.13109999999999999</v>
-      </c>
-      <c r="L9" s="18">
-        <v>1.2171999999999996</v>
+      <c r="B9" s="26">
+        <v>-9.2600000000000002E-2</v>
+      </c>
+      <c r="C9" s="26">
+        <v>-0.46899999999999997</v>
+      </c>
+      <c r="D9" s="26">
+        <v>5.33E-2</v>
+      </c>
+      <c r="E9" s="26">
+        <v>0.64939999999999998</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0.1411</v>
+      </c>
+      <c r="G9" s="26">
+        <v>-0.98029999999999995</v>
+      </c>
+      <c r="H9" s="26">
+        <v>-0.79769999999999996</v>
+      </c>
+      <c r="I9" s="26">
+        <v>0.1089</v>
+      </c>
+      <c r="J9" s="26">
+        <v>7.6E-3</v>
+      </c>
+      <c r="K9" s="26">
+        <v>-1.6615</v>
+      </c>
+      <c r="L9" s="26">
+        <v>-1.5203999999999998</v>
       </c>
       <c r="N9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>uncertain</v>
       </c>
-      <c r="O9" s="21">
-        <f>GETPIVOTDATA("Correlation",$A$3,"Comparison","Federal Funds Rate","Year_Range","2006_2007","Keyword","uncertain")</f>
+      <c r="O9" s="15">
+        <f t="shared" si="1"/>
         <v>8.0199999999999994E-2</v>
       </c>
-      <c r="P9" s="22">
-        <f>GETPIVOTDATA("Correlation",$A$3,"Comparison","S&amp;P 500 Change ","Year_Range","2006_2007","Keyword","uncertain")</f>
-        <v>-0.31219999999999998</v>
-      </c>
-      <c r="Q9" s="19">
-        <f t="shared" si="1"/>
+      <c r="P9" s="16">
+        <f t="shared" si="2"/>
+        <v>-0.2036</v>
+      </c>
+      <c r="Q9" s="15">
+        <f t="shared" si="3"/>
         <v>-0.64229999999999998</v>
       </c>
-      <c r="R9" s="20">
-        <f t="shared" si="2"/>
-        <v>-0.41639999999999999</v>
-      </c>
-      <c r="S9" s="19">
-        <f t="shared" si="3"/>
+      <c r="R9" s="16">
+        <f t="shared" si="4"/>
+        <v>-0.36409999999999998</v>
+      </c>
+      <c r="S9" s="15">
+        <f t="shared" si="5"/>
         <v>-0.17480000000000001</v>
       </c>
-      <c r="T9" s="20">
-        <f t="shared" si="4"/>
-        <v>6.5699999999999995E-2</v>
-      </c>
-      <c r="U9" s="19">
-        <f t="shared" si="5"/>
+      <c r="T9" s="16">
+        <f t="shared" si="6"/>
+        <v>-0.36620000000000003</v>
+      </c>
+      <c r="U9" s="15">
+        <f t="shared" si="7"/>
         <v>-0.25750000000000001</v>
       </c>
-      <c r="V9" s="20">
-        <f t="shared" si="6"/>
-        <v>-0.24329999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V9" s="16">
+        <f t="shared" si="8"/>
+        <v>-0.55700000000000005</v>
+      </c>
+      <c r="W9" s="21">
+        <f t="shared" si="9"/>
+        <v>0.42880000000000001</v>
+      </c>
+      <c r="X9" s="22">
+        <f t="shared" si="10"/>
+        <v>-0.14449999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="26">
         <v>8.0199999999999994E-2</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="26">
         <v>-0.64229999999999998</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="26">
         <v>-0.17480000000000001</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="26">
         <v>-0.25750000000000001</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="26">
         <v>-0.99440000000000017</v>
       </c>
-      <c r="G10" s="18">
-        <v>-0.31219999999999998</v>
-      </c>
-      <c r="H10" s="18">
-        <v>-0.41639999999999999</v>
-      </c>
-      <c r="I10" s="18">
-        <v>6.5699999999999995E-2</v>
-      </c>
-      <c r="J10" s="18">
-        <v>-0.24329999999999999</v>
-      </c>
-      <c r="K10" s="18">
-        <v>-0.90619999999999989</v>
-      </c>
-      <c r="L10" s="18">
-        <v>-1.9006000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="G10" s="26">
+        <v>-0.2036</v>
+      </c>
+      <c r="H10" s="26">
+        <v>-0.36409999999999998</v>
+      </c>
+      <c r="I10" s="26">
+        <v>-0.36620000000000003</v>
+      </c>
+      <c r="J10" s="26">
+        <v>-0.55700000000000005</v>
+      </c>
+      <c r="K10" s="26">
+        <v>-1.4908999999999999</v>
+      </c>
+      <c r="L10" s="26">
+        <v>-2.4853000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="18">
-        <v>-0.57240000000000002</v>
-      </c>
-      <c r="C11" s="18">
-        <v>-1.1143999999999998</v>
-      </c>
-      <c r="D11" s="18">
-        <v>2.4174000000000002</v>
-      </c>
-      <c r="E11" s="18">
-        <v>0.80449999999999999</v>
-      </c>
-      <c r="F11" s="18">
-        <v>1.5350999999999999</v>
-      </c>
-      <c r="G11" s="18">
-        <v>-1.2150999999999998</v>
-      </c>
-      <c r="H11" s="18">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="I11" s="18">
-        <v>-0.16300000000000003</v>
-      </c>
-      <c r="J11" s="18">
-        <v>-0.2571</v>
-      </c>
-      <c r="K11" s="18">
-        <v>-0.94619999999999993</v>
-      </c>
-      <c r="L11" s="18">
-        <v>0.58889999999999976</v>
+      <c r="B11" s="26">
+        <v>-0.90159999999999996</v>
+      </c>
+      <c r="C11" s="26">
+        <v>-1.7183000000000002</v>
+      </c>
+      <c r="D11" s="26">
+        <v>1.5752999999999997</v>
+      </c>
+      <c r="E11" s="26">
+        <v>1.6347</v>
+      </c>
+      <c r="F11" s="26">
+        <v>0.59010000000000007</v>
+      </c>
+      <c r="G11" s="26">
+        <v>-3.4737999999999998</v>
+      </c>
+      <c r="H11" s="26">
+        <v>-1.9771999999999998</v>
+      </c>
+      <c r="I11" s="26">
+        <v>1.3928</v>
+      </c>
+      <c r="J11" s="26">
+        <v>-0.44180000000000008</v>
+      </c>
+      <c r="K11" s="26">
+        <v>-4.5</v>
+      </c>
+      <c r="L11" s="26">
+        <v>-3.9098999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="27">
+        <v>0.50829999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="27">
+        <v>0.59470000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="27">
+        <v>0.5232</v>
+      </c>
+    </row>
+    <row r="27" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="27">
+        <v>0.58479999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="27">
+        <v>0.42880000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H31" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H32" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32">
+        <v>0.33229999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H33" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33">
+        <v>-9.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H34" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34">
+        <v>-6.25E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35">
+        <v>-0.1182</v>
+      </c>
+    </row>
+    <row r="36" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H36" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36">
+        <v>-0.14449999999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="W3:X3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1617,8 +1877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BB6CD5-4586-DB47-907B-605FE3263EE1}">
   <dimension ref="A3:S54"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" zoomScale="134" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48:O54"/>
+    <sheetView zoomScale="176" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1653,7 +1913,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1662,68 +1922,68 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>-0.32279999999999998</v>
+        <v>-0.82140000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>-0.2387</v>
+        <v>-0.2036</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>-0.31219999999999998</v>
+        <v>-0.65739999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>-0.20319999999999999</v>
+        <v>-0.81110000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>-0.13819999999999999</v>
+        <v>-0.98029999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1732,110 +1992,110 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>-2.3599999999999999E-2</v>
+        <v>-0.48920000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>0.61270000000000002</v>
+        <v>-0.4244</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>7.9699999999999993E-2</v>
+        <v>-0.36409999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>-0.41639999999999999</v>
+        <v>9.8199999999999996E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>0.43659999999999999</v>
+        <v>-0.79769999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>-0.127</v>
+        <v>-0.36620000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D15">
-        <v>6.5699999999999995E-2</v>
+        <v>0.43059999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>-9.98E-2</v>
+        <v>0.1089</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -1844,12 +2104,12 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>-0.1474</v>
+        <v>0.42220000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -1858,73 +2118,73 @@
         <v>7</v>
       </c>
       <c r="D18">
-        <v>0.14549999999999999</v>
+        <v>0.79730000000000001</v>
       </c>
       <c r="S18" s="4"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>-0.1159</v>
+        <v>7.17E-2</v>
       </c>
       <c r="S19" s="4"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>3.5000000000000001E-3</v>
+        <v>8.3799999999999999E-2</v>
       </c>
       <c r="S20" s="4"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>-3.6600000000000001E-2</v>
+        <v>-4.7899999999999998E-2</v>
       </c>
       <c r="S21" s="4"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>0.13519999999999999</v>
+        <v>7.6E-3</v>
       </c>
       <c r="S22" s="4"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1933,7 +2193,7 @@
         <v>25</v>
       </c>
       <c r="D23">
-        <v>-0.24329999999999999</v>
+        <v>-0.55700000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
@@ -1958,10 +2218,10 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>0.2366</v>
+        <v>8.0199999999999994E-2</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
@@ -1972,10 +2232,10 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>8.0199999999999994E-2</v>
+        <v>-2.63E-2</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
@@ -1986,10 +2246,10 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>-2.63E-2</v>
+        <v>-0.2366</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
@@ -2000,10 +2260,10 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>-0.2366</v>
+        <v>-9.2600000000000002E-2</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
@@ -2028,10 +2288,10 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>0.13489999999999999</v>
+        <v>-0.42109999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
@@ -2042,10 +2302,10 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D31">
-        <v>-0.42109999999999997</v>
+        <v>-0.64229999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
@@ -2056,10 +2316,10 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32">
-        <v>-0.64229999999999998</v>
+        <v>-5.4800000000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -2070,10 +2330,10 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>-5.4800000000000001E-2</v>
+        <v>-0.46899999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -2084,10 +2344,10 @@
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D34">
-        <v>0.89539999999999997</v>
+        <v>-0.17480000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -2098,10 +2358,10 @@
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D35">
-        <v>-0.17480000000000001</v>
+        <v>0.49659999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -2112,10 +2372,10 @@
         <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D36">
-        <v>0.49659999999999999</v>
+        <v>5.33E-2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -2154,10 +2414,10 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D39">
-        <v>-0.18079999999999999</v>
+        <v>0.58320000000000005</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
@@ -2168,10 +2428,10 @@
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40">
-        <v>0.58320000000000005</v>
+        <v>0.80010000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
@@ -2182,10 +2442,10 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D41">
-        <v>0.80010000000000003</v>
+        <v>-0.14050000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -2196,10 +2456,10 @@
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D42">
-        <v>-0.14050000000000001</v>
+        <v>0.64939999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -2217,34 +2477,34 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
     </row>
     <row r="48" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G48" s="2"/>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I48" s="16"/>
-      <c r="J48" s="15" t="s">
+      <c r="I48" s="24"/>
+      <c r="J48" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K48" s="16"/>
-      <c r="L48" s="15" t="s">
+      <c r="K48" s="24"/>
+      <c r="L48" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="M48" s="16"/>
-      <c r="N48" s="15" t="s">
+      <c r="M48" s="24"/>
+      <c r="N48" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="O48" s="16"/>
+      <c r="O48" s="24"/>
     </row>
     <row r="49" spans="7:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G49" s="11" t="s">
@@ -2254,25 +2514,25 @@
         <v>12</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="L49" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="N49" s="5" t="s">
         <v>12</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="7:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2308,7 +2568,7 @@
     <row r="51" spans="7:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G51" s="12" t="str">
         <f t="shared" ref="G51:G54" si="0">C5</f>
-        <v>trade</v>
+        <v>uncertain</v>
       </c>
       <c r="H51" s="7">
         <v>-0.2366</v>
@@ -2338,7 +2598,7 @@
     <row r="52" spans="7:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G52" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>uncertain</v>
+        <v>interest</v>
       </c>
       <c r="H52" s="9">
         <v>-2.63E-2</v>
@@ -2368,7 +2628,7 @@
     <row r="53" spans="7:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G53" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>interest</v>
+        <v>inflation</v>
       </c>
       <c r="H53" s="9">
         <v>0.10580000000000001</v>
@@ -2398,7 +2658,7 @@
     <row r="54" spans="7:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G54" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>inflation</v>
+        <v>trade</v>
       </c>
       <c r="H54" s="9">
         <v>1.43E-2</v>
@@ -2433,6 +2693,7 @@
     <mergeCell ref="N48:O48"/>
     <mergeCell ref="G47:O47"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -2463,22 +2724,22 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="15" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="16"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">

--- a/Models/Fed Models/Four Models/Correlation Table/Four Models Correlation Table.xlsx
+++ b/Models/Fed Models/Four Models/Correlation Table/Four Models Correlation Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylenabors/Documents/GitHub/MS-Thesis/Models/Fed Models/Four Models/Correlation Table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6D6AC8-6FA8-894E-A5D2-67F9CFA857BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D29C859-885E-F048-86C2-D55EFEC93D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="33340" xr2:uid="{8BF6D4F4-22AA-EC47-B46B-F3D2775721F4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="60160" windowHeight="33340" activeTab="1" xr2:uid="{8BF6D4F4-22AA-EC47-B46B-F3D2775721F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="32" r:id="rId4"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="47">
   <si>
     <t>Keyword</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Federal Funds Rate</t>
   </si>
   <si>
-    <t>Comparison</t>
-  </si>
-  <si>
     <t>Sum of Correlation</t>
   </si>
   <si>
@@ -143,6 +140,48 @@
   </si>
   <si>
     <t>Frequency</t>
+  </si>
+  <si>
+    <t>2007-12-01_2009-06-30</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>2009-07-01_2019-12-31</t>
+  </si>
+  <si>
+    <t>2020-01-01_2022-05-31</t>
+  </si>
+  <si>
+    <t>2022-06-01_2023-12-31</t>
+  </si>
+  <si>
+    <t>SP 500</t>
+  </si>
+  <si>
+    <t>FED</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Great Recession</t>
+  </si>
+  <si>
+    <t>Post Great Recession</t>
+  </si>
+  <si>
+    <t>COVID - 19</t>
+  </si>
+  <si>
+    <t>Post COVID - 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correlation of Keywords </t>
   </si>
 </sst>
 </file>
@@ -383,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -431,6 +470,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -441,7 +481,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,9 +505,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Microsoft Office User" refreshedDate="45124.698766666668" missingItemsLimit="0" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="40" xr:uid="{959BCDC2-7E8D-984E-84A9-427C6FBC2CD7}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Microsoft Office User" refreshedDate="45141.609353587963" missingItemsLimit="0" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="40" xr:uid="{959BCDC2-7E8D-984E-84A9-427C6FBC2CD7}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A3:D43" sheet="Sheet1"/>
+    <worksheetSource ref="A3:C43" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="Comparison" numFmtId="0">
@@ -746,7 +791,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58DF4B50-4824-F44A-B2BE-518B5E68F746}" name="PivotTable1" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{58DF4B50-4824-F44A-B2BE-518B5E68F746}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:L11" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisCol" showAll="0">
@@ -1155,7 +1200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED3FDC8-89CA-9840-B7EA-490778D642F5}">
   <dimension ref="A2:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="157" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="157" workbookViewId="0">
       <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
@@ -1176,86 +1221,86 @@
     <row r="2" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="N3" s="2"/>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="23" t="s">
+      <c r="R3" s="25"/>
+      <c r="S3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="24"/>
-      <c r="S3" s="23" t="s">
+      <c r="T3" s="25"/>
+      <c r="U3" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="24"/>
-      <c r="U3" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="V3" s="24"/>
-      <c r="W3" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="X3" s="24"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" s="25"/>
     </row>
     <row r="4" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
+      <c r="P4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="17" t="s">
+      <c r="S4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="17" t="s">
+      <c r="U4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="V4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" s="17" t="s">
+      <c r="W4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="20" t="s">
         <v>27</v>
-      </c>
-      <c r="T4" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="U4" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="V4" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="W4" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="X4" s="20" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1330,37 +1375,37 @@
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="27">
         <v>-0.2366</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="27">
         <v>-0.13109999999999999</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="27">
         <v>0.78269999999999995</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="27">
         <v>0.58320000000000005</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="27">
         <v>0.99819999999999998</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="27">
         <v>-0.81110000000000004</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="27">
         <v>-0.48920000000000002</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="27">
         <v>0.79730000000000001</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="27">
         <v>7.17E-2</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="27">
         <v>-0.43130000000000002</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="27">
         <v>0.56689999999999996</v>
       </c>
       <c r="N6" s="12" t="str">
@@ -1412,37 +1457,37 @@
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="27">
         <v>-2.63E-2</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="27">
         <v>-0.42109999999999997</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="27">
         <v>0.49659999999999999</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="27">
         <v>0.80010000000000003</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="27">
         <v>0.84930000000000005</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="27">
         <v>-0.65739999999999998</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="27">
         <v>-0.4244</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="27">
         <v>0.43059999999999998</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="27">
         <v>8.3799999999999999E-2</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="27">
         <v>-0.5673999999999999</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="27">
         <v>0.28190000000000004</v>
       </c>
       <c r="N7" s="12" t="str">
@@ -1492,39 +1537,39 @@
     </row>
     <row r="8" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="26">
+        <v>23</v>
+      </c>
+      <c r="B8" s="27">
         <v>-0.62629999999999997</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="27">
         <v>-5.4800000000000001E-2</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="27">
         <v>0.41749999999999998</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="27">
         <v>-0.14050000000000001</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="27">
         <v>-0.40409999999999996</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="27">
         <v>-0.82140000000000002</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="27">
         <v>9.8199999999999996E-2</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="27">
         <v>0.42220000000000002</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="27">
         <v>-4.7899999999999998E-2</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="27">
         <v>-0.34890000000000004</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="27">
         <v>-0.75299999999999989</v>
       </c>
       <c r="N8" s="12" t="str">
@@ -1574,39 +1619,39 @@
     </row>
     <row r="9" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="26">
+        <v>22</v>
+      </c>
+      <c r="B9" s="27">
         <v>-9.2600000000000002E-2</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="27">
         <v>-0.46899999999999997</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="27">
         <v>5.33E-2</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="27">
         <v>0.64939999999999998</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="27">
         <v>0.1411</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="27">
         <v>-0.98029999999999995</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="27">
         <v>-0.79769999999999996</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="27">
         <v>0.1089</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="27">
         <v>7.6E-3</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="27">
         <v>-1.6615</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="27">
         <v>-1.5203999999999998</v>
       </c>
       <c r="N9" s="12" t="str">
@@ -1656,77 +1701,77 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="26">
+        <v>24</v>
+      </c>
+      <c r="B10" s="27">
         <v>8.0199999999999994E-2</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="27">
         <v>-0.64229999999999998</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="27">
         <v>-0.17480000000000001</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="27">
         <v>-0.25750000000000001</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="27">
         <v>-0.99440000000000017</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="27">
         <v>-0.2036</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="27">
         <v>-0.36409999999999998</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="27">
         <v>-0.36620000000000003</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="27">
         <v>-0.55700000000000005</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="27">
         <v>-1.4908999999999999</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="27">
         <v>-2.4853000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="26">
+        <v>16</v>
+      </c>
+      <c r="B11" s="27">
         <v>-0.90159999999999996</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="27">
         <v>-1.7183000000000002</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="27">
         <v>1.5752999999999997</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="27">
         <v>1.6347</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="27">
         <v>0.59010000000000007</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="27">
         <v>-3.4737999999999998</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="27">
         <v>-1.9771999999999998</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="27">
         <v>1.3928</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="27">
         <v>-0.44180000000000008</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="27">
         <v>-4.5</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="27">
         <v>-3.9098999999999995</v>
       </c>
     </row>
@@ -1735,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="8:10" x14ac:dyDescent="0.2">
@@ -1743,9 +1788,9 @@
         <v>7</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J24" s="27">
+        <v>32</v>
+      </c>
+      <c r="J24" s="23">
         <v>0.50829999999999997</v>
       </c>
     </row>
@@ -1754,42 +1799,42 @@
         <v>6</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="27">
+        <v>32</v>
+      </c>
+      <c r="J25" s="23">
         <v>0.59470000000000001</v>
       </c>
     </row>
     <row r="26" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H26" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" s="27">
+        <v>32</v>
+      </c>
+      <c r="J26" s="23">
         <v>0.5232</v>
       </c>
     </row>
     <row r="27" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J27" s="27">
+        <v>32</v>
+      </c>
+      <c r="J27" s="23">
         <v>0.58479999999999999</v>
       </c>
     </row>
     <row r="28" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J28" s="27">
+        <v>32</v>
+      </c>
+      <c r="J28" s="23">
         <v>0.42880000000000001</v>
       </c>
     </row>
@@ -1799,7 +1844,7 @@
       </c>
       <c r="I31" s="14"/>
       <c r="J31" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="8:10" x14ac:dyDescent="0.2">
@@ -1807,7 +1852,7 @@
         <v>7</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J32">
         <v>0.33229999999999998</v>
@@ -1818,7 +1863,7 @@
         <v>6</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J33">
         <v>-9.1000000000000004E-3</v>
@@ -1826,10 +1871,10 @@
     </row>
     <row r="34" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H34" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J34">
         <v>-6.25E-2</v>
@@ -1837,10 +1882,10 @@
     </row>
     <row r="35" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H35" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J35">
         <v>-0.1182</v>
@@ -1848,10 +1893,10 @@
     </row>
     <row r="36" spans="8:10" x14ac:dyDescent="0.2">
       <c r="H36" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J36">
         <v>-0.14449999999999999</v>
@@ -1875,825 +1920,941 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BB6CD5-4586-DB47-907B-605FE3263EE1}">
-  <dimension ref="A3:S54"/>
+  <dimension ref="A2:R56"/>
   <sheetViews>
-    <sheetView zoomScale="176" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="167" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>-0.38840000000000002</v>
       </c>
       <c r="D4">
-        <v>-0.82140000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-0.28160000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>0.58709999999999996</v>
       </c>
       <c r="D5">
-        <v>-0.2036</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.38619999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>-0.61019999999999996</v>
+      </c>
+      <c r="D6">
+        <v>-0.51049999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>-8.9599999999999999E-2</v>
+      </c>
+      <c r="D7">
+        <v>3.5499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>-0.66739999999999999</v>
+      </c>
+      <c r="D8">
+        <v>-0.63739999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0.78890000000000005</v>
+      </c>
+      <c r="D9">
+        <v>0.82189999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>-0.65739999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C10">
+        <v>-0.46489999999999998</v>
+      </c>
+      <c r="D10">
+        <v>-0.55600000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>0.18920000000000001</v>
+      </c>
+      <c r="D11">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D12">
+        <v>0.12909999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>0.80569999999999997</v>
+      </c>
+      <c r="D13">
+        <v>0.86829999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>-0.60929999999999995</v>
+      </c>
+      <c r="D14">
+        <v>-0.41370000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>0.4042</v>
+      </c>
+      <c r="D15">
+        <v>0.47089999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="D7">
-        <v>-0.81110000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C16">
+        <v>0.84279999999999999</v>
+      </c>
+      <c r="D16">
+        <v>0.7883</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>0.4531</v>
+      </c>
+      <c r="D17">
+        <v>0.52429999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>-0.71150000000000002</v>
+      </c>
+      <c r="D18">
+        <v>0.1777</v>
+      </c>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.62570000000000003</v>
+      </c>
+      <c r="R19" s="4"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>-0.65349999999999997</v>
+      </c>
+      <c r="D20">
+        <v>-0.14480000000000001</v>
+      </c>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="D8">
-        <v>-0.98029999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C21">
+        <v>0.124</v>
+      </c>
+      <c r="D21">
+        <v>0.58440000000000003</v>
+      </c>
+      <c r="R21" s="4"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="D9">
-        <v>-0.48920000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C22">
+        <v>0.2455</v>
+      </c>
+      <c r="D22">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="D10">
-        <v>-0.4244</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11">
-        <v>-0.36409999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12">
-        <v>9.8199999999999996E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="C23">
+        <v>-9.74E-2</v>
+      </c>
+      <c r="D23">
+        <v>0.29780000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.28220000000000001</v>
+      </c>
+      <c r="D24">
+        <v>0.1123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="D13">
-        <v>-0.79769999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <v>-0.36620000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C25">
+        <v>0.15010000000000001</v>
+      </c>
+      <c r="D25">
+        <v>9.6799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="D15">
-        <v>0.43059999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="C26">
+        <v>-0.44009999999999999</v>
+      </c>
+      <c r="D26">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>-0.59150000000000003</v>
+      </c>
+      <c r="D27">
+        <v>-0.7369</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>0.88039999999999996</v>
+      </c>
+      <c r="D28">
+        <v>0.61419999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>-0.63100000000000001</v>
+      </c>
+      <c r="D29">
+        <v>-0.59509999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>-0.35139999999999999</v>
+      </c>
+      <c r="D30">
+        <v>-9.7199999999999995E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="D31">
+        <v>0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B34" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>-0.12859999999999999</v>
+      </c>
+      <c r="D34">
+        <v>0.1041</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B35" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>-0.48499999999999999</v>
+      </c>
+      <c r="D35">
+        <v>1.66E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B36" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="D36">
+        <v>0.65159999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B37" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>0.59050000000000002</v>
+      </c>
+      <c r="D37">
+        <v>0.71109999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B38" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D16">
-        <v>0.1089</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17">
-        <v>0.42220000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>0.79730000000000001</v>
-      </c>
-      <c r="S18" s="4"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19">
-        <v>7.17E-2</v>
-      </c>
-      <c r="S19" s="4"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20">
-        <v>8.3799999999999999E-2</v>
-      </c>
-      <c r="S20" s="4"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21">
-        <v>-4.7899999999999998E-2</v>
-      </c>
-      <c r="S21" s="4"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22">
-        <v>7.6E-3</v>
-      </c>
-      <c r="S22" s="4"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23">
-        <v>-0.55700000000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="C38">
+        <v>0.46429999999999999</v>
+      </c>
+      <c r="D38">
+        <v>0.3024</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B39" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>0.61890000000000001</v>
+      </c>
+      <c r="D39">
+        <v>0.68320000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B40" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40">
+        <v>0.34470000000000001</v>
+      </c>
+      <c r="D40">
+        <v>0.4279</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+    </row>
+    <row r="48" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F48" s="2"/>
+      <c r="G48" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H48" s="25"/>
+      <c r="I48" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="J48" s="25"/>
+      <c r="K48" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L48" s="25"/>
+      <c r="M48" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="N48" s="25"/>
+      <c r="O48" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="P48" s="25"/>
+    </row>
+    <row r="49" spans="6:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F49" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24">
-        <v>-0.62629999999999997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="I49" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25">
-        <v>8.0199999999999994E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="K49" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L49" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <v>-2.63E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="M49" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="N49" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27">
-        <v>-0.2366</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="O49" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P49" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28">
-        <v>-9.2600000000000002E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29">
-        <v>-0.13109999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30">
-        <v>-0.42109999999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31">
-        <v>-0.64229999999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32">
-        <v>-5.4800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33">
-        <v>-0.46899999999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34">
-        <v>-0.17480000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35">
-        <v>0.49659999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36">
-        <v>5.33E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37">
-        <v>0.41749999999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38">
-        <v>0.78269999999999995</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39">
-        <v>0.58320000000000005</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40">
-        <v>0.80010000000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41">
-        <v>-0.14050000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42">
-        <v>0.64939999999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43">
-        <v>-0.25750000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-    </row>
-    <row r="48" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G48" s="2"/>
-      <c r="H48" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I48" s="24"/>
-      <c r="J48" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="K48" s="24"/>
-      <c r="L48" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="M48" s="24"/>
-      <c r="N48" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="O48" s="24"/>
-    </row>
-    <row r="49" spans="7:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G49" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J49" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N49" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="O49" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="7:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G50" s="12" t="str">
+    </row>
+    <row r="50" spans="6:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F50" s="12" t="str">
+        <f>B4</f>
+        <v>invest</v>
+      </c>
+      <c r="G50" s="15">
         <f>C4</f>
-        <v>invest</v>
-      </c>
-      <c r="H50" s="7">
-        <v>0.13270000000000001</v>
-      </c>
-      <c r="I50" s="8">
-        <v>-0.23530000000000001</v>
-      </c>
-      <c r="J50" s="7">
-        <v>-0.52869999999999995</v>
-      </c>
-      <c r="K50" s="8">
-        <v>1.52E-2</v>
-      </c>
-      <c r="L50" s="7">
-        <v>-0.4083</v>
-      </c>
-      <c r="M50" s="8">
-        <v>0.1263</v>
-      </c>
-      <c r="N50" s="7">
-        <v>0.4103</v>
-      </c>
-      <c r="O50" s="8">
-        <v>-0.20250000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="7:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G51" s="12" t="str">
-        <f t="shared" ref="G51:G54" si="0">C5</f>
-        <v>uncertain</v>
-      </c>
-      <c r="H51" s="7">
-        <v>-0.2366</v>
-      </c>
-      <c r="I51" s="8">
-        <v>-0.13819999999999999</v>
-      </c>
-      <c r="J51" s="7">
-        <v>-0.13109999999999999</v>
-      </c>
-      <c r="K51" s="8">
-        <v>-2.3599999999999999E-2</v>
-      </c>
-      <c r="L51" s="7">
-        <v>0.78269999999999995</v>
-      </c>
-      <c r="M51" s="8">
-        <v>0.14549999999999999</v>
-      </c>
-      <c r="N51" s="7">
-        <v>0.58320000000000005</v>
-      </c>
-      <c r="O51" s="8">
-        <v>3.5000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="7:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G52" s="12" t="str">
+        <v>-0.38840000000000002</v>
+      </c>
+      <c r="H50" s="15">
+        <f>D4</f>
+        <v>-0.28160000000000002</v>
+      </c>
+      <c r="I50" s="15">
+        <f>C11</f>
+        <v>0.18920000000000001</v>
+      </c>
+      <c r="J50" s="15">
+        <f>D11</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="K50" s="15">
+        <f>C18</f>
+        <v>-0.71150000000000002</v>
+      </c>
+      <c r="L50" s="15">
+        <f>D18</f>
+        <v>0.1777</v>
+      </c>
+      <c r="M50" s="15">
+        <f>C25</f>
+        <v>0.15010000000000001</v>
+      </c>
+      <c r="N50" s="15">
+        <f>D25</f>
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="O50" s="15">
+        <f>C34</f>
+        <v>-0.12859999999999999</v>
+      </c>
+      <c r="P50" s="28">
+        <f>D34</f>
+        <v>0.1041</v>
+      </c>
+    </row>
+    <row r="51" spans="6:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="12" t="str">
+        <f t="shared" ref="F51:F54" si="0">B5</f>
+        <v>trade</v>
+      </c>
+      <c r="G51" s="15">
+        <f t="shared" ref="G51:H56" si="1">C5</f>
+        <v>0.58709999999999996</v>
+      </c>
+      <c r="H51" s="15">
+        <f t="shared" si="1"/>
+        <v>0.38619999999999999</v>
+      </c>
+      <c r="I51" s="15">
+        <f t="shared" ref="I51:J56" si="2">C12</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J51" s="15">
+        <f t="shared" si="2"/>
+        <v>0.12909999999999999</v>
+      </c>
+      <c r="K51" s="15">
+        <f t="shared" ref="K51:L56" si="3">C19</f>
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="L51" s="15">
+        <f t="shared" si="3"/>
+        <v>0.62570000000000003</v>
+      </c>
+      <c r="M51" s="15">
+        <f t="shared" ref="M51:N56" si="4">C26</f>
+        <v>-0.44009999999999999</v>
+      </c>
+      <c r="N51" s="15">
+        <f t="shared" si="4"/>
+        <v>-0.24</v>
+      </c>
+      <c r="O51" s="15">
+        <f t="shared" ref="O51:P56" si="5">C35</f>
+        <v>-0.48499999999999999</v>
+      </c>
+      <c r="P51" s="29">
+        <f t="shared" si="5"/>
+        <v>1.66E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="6:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="12" t="str">
         <f t="shared" si="0"/>
+        <v>capital</v>
+      </c>
+      <c r="G52" s="15">
+        <f t="shared" si="1"/>
+        <v>-0.61019999999999996</v>
+      </c>
+      <c r="H52" s="15">
+        <f t="shared" si="1"/>
+        <v>-0.51049999999999995</v>
+      </c>
+      <c r="I52" s="15">
+        <f t="shared" si="2"/>
+        <v>0.80569999999999997</v>
+      </c>
+      <c r="J52" s="15">
+        <f t="shared" si="2"/>
+        <v>0.86829999999999996</v>
+      </c>
+      <c r="K52" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.65349999999999997</v>
+      </c>
+      <c r="L52" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.14480000000000001</v>
+      </c>
+      <c r="M52" s="15">
+        <f t="shared" si="4"/>
+        <v>-0.59150000000000003</v>
+      </c>
+      <c r="N52" s="15">
+        <f t="shared" si="4"/>
+        <v>-0.7369</v>
+      </c>
+      <c r="O52" s="15">
+        <f t="shared" si="5"/>
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="P52" s="29">
+        <f t="shared" si="5"/>
+        <v>0.65159999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="6:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F53" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>market</v>
+      </c>
+      <c r="G53" s="15">
+        <f t="shared" si="1"/>
+        <v>-8.9599999999999999E-2</v>
+      </c>
+      <c r="H53" s="15">
+        <f t="shared" si="1"/>
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="I53" s="15">
+        <f t="shared" si="2"/>
+        <v>-0.60929999999999995</v>
+      </c>
+      <c r="J53" s="15">
+        <f t="shared" si="2"/>
+        <v>-0.41370000000000001</v>
+      </c>
+      <c r="K53" s="15">
+        <f t="shared" si="3"/>
+        <v>0.124</v>
+      </c>
+      <c r="L53" s="15">
+        <f t="shared" si="3"/>
+        <v>0.58440000000000003</v>
+      </c>
+      <c r="M53" s="15">
+        <f t="shared" si="4"/>
+        <v>0.88039999999999996</v>
+      </c>
+      <c r="N53" s="15">
+        <f t="shared" si="4"/>
+        <v>0.61419999999999997</v>
+      </c>
+      <c r="O53" s="15">
+        <f t="shared" si="5"/>
+        <v>0.59050000000000002</v>
+      </c>
+      <c r="P53" s="29">
+        <f t="shared" si="5"/>
+        <v>0.71109999999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="6:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>credit</v>
+      </c>
+      <c r="G54" s="15">
+        <f t="shared" si="1"/>
+        <v>-0.66739999999999999</v>
+      </c>
+      <c r="H54" s="15">
+        <f t="shared" si="1"/>
+        <v>-0.63739999999999997</v>
+      </c>
+      <c r="I54" s="15">
+        <f t="shared" si="2"/>
+        <v>0.4042</v>
+      </c>
+      <c r="J54" s="15">
+        <f t="shared" si="2"/>
+        <v>0.47089999999999999</v>
+      </c>
+      <c r="K54" s="15">
+        <f t="shared" si="3"/>
+        <v>0.2455</v>
+      </c>
+      <c r="L54" s="15">
+        <f t="shared" si="3"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="M54" s="15">
+        <f t="shared" si="4"/>
+        <v>-0.63100000000000001</v>
+      </c>
+      <c r="N54" s="15">
+        <f t="shared" si="4"/>
+        <v>-0.59509999999999996</v>
+      </c>
+      <c r="O54" s="15">
+        <f t="shared" si="5"/>
+        <v>0.46429999999999999</v>
+      </c>
+      <c r="P54" s="29">
+        <f t="shared" si="5"/>
+        <v>0.3024</v>
+      </c>
+    </row>
+    <row r="55" spans="6:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="12" t="str">
+        <f t="shared" ref="F55:F56" si="6">B9</f>
+        <v>inflation</v>
+      </c>
+      <c r="G55" s="15">
+        <f t="shared" si="1"/>
+        <v>0.78890000000000005</v>
+      </c>
+      <c r="H55" s="15">
+        <f t="shared" si="1"/>
+        <v>0.82189999999999996</v>
+      </c>
+      <c r="I55" s="15">
+        <f t="shared" si="2"/>
+        <v>0.84279999999999999</v>
+      </c>
+      <c r="J55" s="15">
+        <f t="shared" si="2"/>
+        <v>0.7883</v>
+      </c>
+      <c r="K55" s="15">
+        <f t="shared" si="3"/>
+        <v>-9.74E-2</v>
+      </c>
+      <c r="L55" s="15">
+        <f t="shared" si="3"/>
+        <v>0.29780000000000001</v>
+      </c>
+      <c r="M55" s="15">
+        <f t="shared" si="4"/>
+        <v>-0.35139999999999999</v>
+      </c>
+      <c r="N55" s="15">
+        <f t="shared" si="4"/>
+        <v>-9.7199999999999995E-2</v>
+      </c>
+      <c r="O55" s="15">
+        <f t="shared" si="5"/>
+        <v>0.61890000000000001</v>
+      </c>
+      <c r="P55" s="29">
+        <f t="shared" si="5"/>
+        <v>0.68320000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="6:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F56" s="12" t="str">
+        <f t="shared" si="6"/>
         <v>interest</v>
       </c>
-      <c r="H52" s="9">
-        <v>-2.63E-2</v>
-      </c>
-      <c r="I52" s="10">
-        <v>-0.20319999999999999</v>
-      </c>
-      <c r="J52" s="9">
-        <v>-0.42109999999999997</v>
-      </c>
-      <c r="K52" s="10">
-        <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="L52" s="9">
-        <v>0.49659999999999999</v>
-      </c>
-      <c r="M52" s="10">
-        <v>-9.98E-2</v>
-      </c>
-      <c r="N52" s="9">
-        <v>0.80010000000000003</v>
-      </c>
-      <c r="O52" s="10">
-        <v>-3.6600000000000001E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="7:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G53" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>inflation</v>
-      </c>
-      <c r="H53" s="9">
-        <v>0.10580000000000001</v>
-      </c>
-      <c r="I53" s="10">
-        <v>-0.18579999999999999</v>
-      </c>
-      <c r="J53" s="9">
-        <v>0.22520000000000001</v>
-      </c>
-      <c r="K53" s="10">
-        <v>5.5100000000000003E-2</v>
-      </c>
-      <c r="L53" s="9">
-        <v>0.86499999999999999</v>
-      </c>
-      <c r="M53" s="10">
-        <v>-9.0899999999999995E-2</v>
-      </c>
-      <c r="N53" s="9">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="O53" s="10">
-        <v>-2.6499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="7:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G54" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>trade</v>
-      </c>
-      <c r="H54" s="9">
-        <v>1.43E-2</v>
-      </c>
-      <c r="I54" s="10">
-        <v>-0.14599999999999999</v>
-      </c>
-      <c r="J54" s="9">
-        <v>-0.69750000000000001</v>
-      </c>
-      <c r="K54" s="10">
-        <v>-0.313</v>
-      </c>
-      <c r="L54" s="9">
-        <v>0.57720000000000005</v>
-      </c>
-      <c r="M54" s="10">
-        <v>-0.13009999999999999</v>
-      </c>
-      <c r="N54" s="9">
-        <v>0.74860000000000004</v>
-      </c>
-      <c r="O54" s="10">
-        <v>5.9799999999999999E-2</v>
+      <c r="G56" s="15">
+        <f t="shared" si="1"/>
+        <v>-0.46489999999999998</v>
+      </c>
+      <c r="H56" s="15">
+        <f t="shared" si="1"/>
+        <v>-0.55600000000000005</v>
+      </c>
+      <c r="I56" s="15">
+        <f t="shared" si="2"/>
+        <v>0.4531</v>
+      </c>
+      <c r="J56" s="15">
+        <f t="shared" si="2"/>
+        <v>0.52429999999999999</v>
+      </c>
+      <c r="K56" s="15">
+        <f t="shared" si="3"/>
+        <v>0.28220000000000001</v>
+      </c>
+      <c r="L56" s="15">
+        <f t="shared" si="3"/>
+        <v>0.1123</v>
+      </c>
+      <c r="M56" s="15">
+        <f t="shared" si="4"/>
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="N56" s="15">
+        <f t="shared" si="4"/>
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="O56" s="15">
+        <f t="shared" si="5"/>
+        <v>0.34470000000000001</v>
+      </c>
+      <c r="P56" s="29">
+        <f t="shared" si="5"/>
+        <v>0.4279</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="G47:O47"/>
+  <mergeCells count="6">
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="F47:P47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="M48:N48"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="G50:P56">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="&quot;|1|&quot;"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -2724,26 +2885,26 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="24"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>12</v>
